--- a/data/income_statement/1digit/size/B_IS_LARGE.xlsx
+++ b/data/income_statement/1digit/size/B_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>B-Mining and quarrying</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>B-Mining and quarrying</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1109 +841,1254 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>10021543.21367</v>
+        <v>9595610.9351</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>12609698.65114</v>
+        <v>12166493.01779</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>18262123.9952</v>
+        <v>17719643.91962</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>19661809.12035</v>
+        <v>18941143.74633</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>19537860.95208</v>
+        <v>19182427.92504</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>26410146.51298</v>
+        <v>19290832.43335</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>18735819.37472</v>
+        <v>18315993.62025</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>20382218.20585</v>
+        <v>18849665.44749</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>30371933.39513</v>
+        <v>28704078.02542</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>35705782.41950999</v>
+        <v>34060931.68678</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>47366604.37577</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>45819416.04886</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>61492413.225</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>8577732.28472</v>
+        <v>8246260.73255</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>10645273.80932</v>
+        <v>10323428.8954</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>15405914.28721</v>
+        <v>15005664.67273</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>16477844.29611</v>
+        <v>15919308.37774</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>15499804.64687</v>
+        <v>15270661.32001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>22671838.70786</v>
+        <v>15453678.36408</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>15069642.79836</v>
+        <v>14758418.28733</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>16241421.25229</v>
+        <v>15068889.75978</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>24249390.0011</v>
+        <v>22956758.92581</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>29177183.10121</v>
+        <v>28087961.48828</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>39303043.90328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>38077330.63322999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>48689888.413</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>1360164.2428</v>
+        <v>1283997.49406</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>1864383.61886</v>
+        <v>1762327.84837</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>2601199.17895</v>
+        <v>2482177.24172</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>3024362.30324</v>
+        <v>2890014.822689999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>3884803.90899</v>
+        <v>3789113.00086</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>3542657.87715</v>
+        <v>3670614.56511</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>3415216.57523</v>
+        <v>3333612.8321</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>3819840.34382</v>
+        <v>3536872.50285</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>5630600.87319</v>
+        <v>5346238.185140001</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>6192879.887850001</v>
+        <v>5705303.70483</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>7149105.49125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>6899934.159510001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>11676789.121</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>83646.68615000001</v>
+        <v>65352.70849</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>100041.22296</v>
+        <v>80736.27402</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>255010.52904</v>
+        <v>231802.00517</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>159602.521</v>
+        <v>131820.5459</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>153252.39622</v>
+        <v>122653.60417</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>195649.92797</v>
+        <v>166539.50416</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>250960.00113</v>
+        <v>223962.50082</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>320956.60974</v>
+        <v>243903.18486</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>491942.52084</v>
+        <v>401080.91447</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>335719.43045</v>
+        <v>267666.49367</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>914454.98124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>842151.25612</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1125735.691</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>296578.94524</v>
+        <v>285631.01305</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>390371.69991</v>
+        <v>376737.64198</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>515200.06658</v>
+        <v>496422.3432</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>627292.2671300001</v>
+        <v>602688.2858000001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>673740.2986100001</v>
+        <v>642588.14682</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>7960190.67684</v>
+        <v>737512.13888</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>530493.43783</v>
+        <v>536952.9159</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>559170.3309000001</v>
+        <v>501517.01481</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>727603.8415600001</v>
+        <v>697121.3210299999</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>947946.30973</v>
+        <v>917048.7666900001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1066054.46357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1051274.99419</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>744634.228</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>19682.91692</v>
+        <v>17178.29932</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>20068.12257</v>
+        <v>17924.39127</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>21294.51669</v>
+        <v>20974.69913</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>31404.60786</v>
+        <v>23748.0116</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>35111.52547</v>
+        <v>33038.10271</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>7249119.77881</v>
+        <v>63348.43374</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>55916.83303000001</v>
+        <v>65703.98218000001</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>137041.78638</v>
+        <v>92548.75143999999</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>219791.38024</v>
+        <v>198376.73283</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>87198.71706</v>
+        <v>79547.07458</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>173123.89512</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>164871.92048</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>205295.883</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>131078.65644</v>
+        <v>129110.34354</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>147451.07549</v>
+        <v>146582.08776</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>165650.04349</v>
+        <v>165330.76316</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>218716.29426</v>
+        <v>214408.69014</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>204037.67339</v>
+        <v>200657.00521</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>266853.59991</v>
+        <v>256838.16995</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>191375.69645</v>
+        <v>193776.24748</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>181564.92774</v>
+        <v>177700.55704</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>158384.11837</v>
+        <v>156364.67337</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>219940.36573</v>
+        <v>219260.89748</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>257734.39156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>257191.78929</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>301827.384</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>145817.37188</v>
+        <v>139342.37019</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>222852.50185</v>
+        <v>212231.16295</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>328255.5064</v>
+        <v>310116.88091</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>377171.36501</v>
+        <v>364531.5840600001</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>434591.09975</v>
+        <v>408893.0389</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>444217.29812</v>
+        <v>417325.53519</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>283200.90835</v>
+        <v>277472.68624</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>240563.61678</v>
+        <v>231267.70633</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>349428.34295</v>
+        <v>342379.91483</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>640807.2269400001</v>
+        <v>618240.79463</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>635196.1768900001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>629211.2844199999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>237510.961</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>9724964.268429998</v>
+        <v>9309979.922050001</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>12219326.95123</v>
+        <v>11789755.37581</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>17746923.92862</v>
+        <v>17223221.57642</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>19034516.85322</v>
+        <v>18338455.46053</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>18864120.65347</v>
+        <v>18539839.77822</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>18449955.83614</v>
+        <v>18553320.29447</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>18205325.93689</v>
+        <v>17779040.70435</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>19823047.87495</v>
+        <v>18348148.43268</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>29644329.55356999</v>
+        <v>28006956.70439</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>34757836.10978</v>
+        <v>33143882.92009</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>46300549.9122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>44768141.05467</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>60747778.997</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>6348540.514260001</v>
+        <v>6067213.985470001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>7813152.30223</v>
+        <v>7521930.76756</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>10455183.04313</v>
+        <v>10056370.43959</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>11280488.06253</v>
+        <v>10770995.54939</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>11464929.58017</v>
+        <v>11298908.17402</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>12248104.66603</v>
+        <v>12193672.92843</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>12860614.73666</v>
+        <v>12536514.99133</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>14388260.80786</v>
+        <v>13345859.58179</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>20655026.65209</v>
+        <v>19376955.20925</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>21022215.10146</v>
+        <v>20079270.49948</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>26661891.62252</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>25733718.48818</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>32774079.459</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>4231358.00545</v>
+        <v>4070065.92232</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>5224701.95456</v>
+        <v>5002818.881309999</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>6993142.273530001</v>
+        <v>6746463.05306</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>8163601.472530001</v>
+        <v>7886697.763599999</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>8419747.66124</v>
+        <v>8050542.588779999</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>8450715.539690001</v>
+        <v>8363040.3037</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>9092581.921619998</v>
+        <v>8770205.16584</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>9934772.45511</v>
+        <v>9190696.444089999</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>13764575.37665</v>
+        <v>12859502.44193</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>15668930.20789</v>
+        <v>15161978.90333</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>20031628.75534</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>19400814.60069</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>24559044.775</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>1086096.65867</v>
+        <v>1048097.43463</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>1202912.78209</v>
+        <v>1196497.59143</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1615838.98438</v>
+        <v>1545806.51411</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1687160.74834</v>
+        <v>1629911.13057</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1792434.43989</v>
+        <v>1804286.44095</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1851153.62576</v>
+        <v>1882547.51244</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2036161.3193</v>
+        <v>2048743.04078</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>2529752.83738</v>
+        <v>2388210.96539</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>4049639.18923</v>
+        <v>3876160.97207</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2320979.704</v>
+        <v>2262096.000349999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2596942.16676</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2520770.14104</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>3509788.829</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>983368.62341</v>
+        <v>905103.5721899999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1337871.29614</v>
+        <v>1285193.80643</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1779128.21483</v>
+        <v>1714617.09794</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1285016.95377</v>
+        <v>1128108.2408</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1204548.6046</v>
+        <v>1401050.33057</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1897612.97683</v>
+        <v>1910281.4095</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1657701.87781</v>
+        <v>1651445.23158</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1833253.83827</v>
+        <v>1681531.31097</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>2669826.31606</v>
+        <v>2488778.65699</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2919561.70122</v>
+        <v>2596583.12487</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>3931535.30828</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>3752439.313940001</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>4592312.927</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>47717.22673</v>
+        <v>43947.05633</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>47666.26944</v>
+        <v>37420.48839</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>67073.57038999999</v>
+        <v>49483.77448000001</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>144708.88789</v>
+        <v>126278.41442</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>48198.87444000001</v>
+        <v>43028.81372</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>48622.52374999999</v>
+        <v>37803.70279</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>74169.61792999999</v>
+        <v>66121.55313</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>90481.6771</v>
+        <v>85420.86134</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>170985.77015</v>
+        <v>152513.13826</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>112743.48835</v>
+        <v>58612.47093000001</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>101785.39214</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>59694.43251000001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>112932.928</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>3376423.75417</v>
+        <v>3242765.93658</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>4406174.649</v>
+        <v>4267824.60825</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>7291740.885489999</v>
+        <v>7166851.13683</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>7754028.790689999</v>
+        <v>7567459.91114</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>7399191.0733</v>
+        <v>7240931.6042</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>6201851.170109999</v>
+        <v>6359647.36604</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>5344711.20023</v>
+        <v>5242525.71302</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>5434787.06709</v>
+        <v>5002288.850889999</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>8989302.90148</v>
+        <v>8630001.495139997</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>13735621.00832</v>
+        <v>13064612.42061</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>19638658.28968</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>19034422.56649</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>27973699.538</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>1789405.52057</v>
+        <v>1648208.64424</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>2098879.91422</v>
+        <v>1937533.31691</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>3087208.71199</v>
+        <v>2893651.67972</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>3116622.55381</v>
+        <v>2891831.85978</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>3121158.03235</v>
+        <v>2922763.49524</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>3917937.43866</v>
+        <v>3729147.80657</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>3971436.839209999</v>
+        <v>3861850.13603</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>3708776.5111</v>
+        <v>3298086.93299</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>4633528.275570001</v>
+        <v>4328702.82709</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>5141321.66852</v>
+        <v>4819669.993360001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>9080026.386399999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>8731841.144730002</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>9314278.552999999</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>402733.8030200001</v>
+        <v>392071.00827</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>377879.76818</v>
+        <v>363211.82674</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>862526.7527599999</v>
+        <v>808231.59687</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>577249.7759300001</v>
+        <v>555979.45062</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>470409.19537</v>
+        <v>449959.47857</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>879663.2013199999</v>
+        <v>871202.0416999999</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>1032321.66969</v>
+        <v>1008786.14421</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>425873.91278</v>
+        <v>412816.06229</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>658392.3211199999</v>
+        <v>628694.4026800001</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>1050552.00774</v>
+        <v>1043301.97764</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>4021846.82609</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>3996233.505830001</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>3630802.164</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>310192.14426</v>
+        <v>286810.56824</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>464348.5502700001</v>
+        <v>436843.15893</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>611450.9199099999</v>
+        <v>585617.9137799998</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>691565.64208</v>
+        <v>664728.7743499998</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>704835.0076199999</v>
+        <v>657682.6589800001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>825891.24316</v>
+        <v>780792.8811099998</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>857325.38691</v>
+        <v>812630.15998</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>962021.02512</v>
+        <v>865618.5026799999</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>1416952.3438</v>
+        <v>1341213.77005</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1322116.37458</v>
+        <v>1259975.50924</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1541528.64007</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1474814.75878</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1828743.818</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>1076479.57329</v>
+        <v>969327.06773</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>1256651.59577</v>
+        <v>1137478.33124</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1613231.03932</v>
+        <v>1499802.16907</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1847807.1358</v>
+        <v>1671123.63481</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1945913.82936</v>
+        <v>1815121.35769</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>2212382.99418</v>
+        <v>2077152.88376</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>2081789.78261</v>
+        <v>2040433.83184</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>2320881.5732</v>
+        <v>2019652.36802</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>2558183.61065</v>
+        <v>2358794.654360001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2768653.2862</v>
+        <v>2516392.50648</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>3516650.920240001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>3260792.880119999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>3854732.571</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>1587018.2336</v>
+        <v>1594557.29234</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>2307294.73478</v>
+        <v>2330291.29134</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>4204532.173499999</v>
+        <v>4273199.45711</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>4637406.23688</v>
+        <v>4675628.05136</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>4278033.040949999</v>
+        <v>4318168.108959999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>2283913.73145</v>
+        <v>2630499.55947</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1373274.36102</v>
+        <v>1380675.57699</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1726010.55599</v>
+        <v>1704201.9179</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>4355774.62591</v>
+        <v>4301298.66805</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>8594299.339799998</v>
+        <v>8244942.427250001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>10558631.90328</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>10302581.42176</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>18659420.985</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>1406027.1047</v>
+        <v>1099904.25049</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>2630272.3622</v>
+        <v>1789772.84478</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>4149658.3554</v>
+        <v>3055765.47692</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>3535301.86486</v>
+        <v>2527509.328749999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>4853803.98048</v>
+        <v>3499073.11063</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>4907008.32697</v>
+        <v>3213340.5179</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>11219813.24246</v>
+        <v>6047994.18271</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>11209042.84771</v>
+        <v>6601930.059640001</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>9556795.701340001</v>
+        <v>5702719.821250001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>41651709.80003</v>
+        <v>18797872.16105</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>20903066.93925</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>12575691.67977</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>18925307.048</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>448603.6813</v>
+        <v>426902.13504</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>458630.41288</v>
+        <v>442148.50706</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>779962.3451899999</v>
+        <v>777234.12109</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>711429.7771299999</v>
+        <v>695840.7599500001</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>1025519.67337</v>
+        <v>972728.9143700001</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>750794.3173999999</v>
+        <v>542149.5385199999</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>365456.78989</v>
+        <v>362103.46075</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>600449.7745800002</v>
+        <v>352833.1319900001</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>473653.95052</v>
+        <v>466447.76201</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>893926.8822700001</v>
+        <v>893116.87462</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>117951.75805</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>113441.84047</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>71744.25599999999</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>41979.02515</v>
+        <v>5613.42799</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>257426.73794</v>
+        <v>243091.33998</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>111534.88208</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>527719.60101</v>
+        <v>527067.6113299999</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>359051.39788</v>
+        <v>357446.05986</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>120288.7093</v>
+        <v>106406.25373</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>10398.317</v>
+        <v>765.51526</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>18092.22932</v>
+        <v>1929.45044</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>82701.61108999999</v>
+        <v>47518.23385</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>1812639.81827</v>
+        <v>895054.2806899999</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>328256.58135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>60101.15468</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>2063.613</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>190804.00433</v>
+        <v>165748.01765</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>203697.47744</v>
+        <v>186508.11239</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>296205.9242299999</v>
+        <v>275581.48172</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>469315.46867</v>
+        <v>407629.84683</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>386502.6852</v>
+        <v>328992.58053</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>417212.57553</v>
+        <v>359101.48513</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>414138.06735</v>
+        <v>375358.4496</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>593017.0460600001</v>
+        <v>503104.46139</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>845600.7193400002</v>
+        <v>767595.28943</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1526555.78123</v>
+        <v>1265082.18611</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>2106511.97935</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1850645.39854</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1904624.618</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>1678.95469</v>
+        <v>1648.50361</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>2679.21184</v>
+        <v>2257.65626</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>16405.91924</v>
+        <v>16401.24156</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>10895.34511</v>
+        <v>1642.61382</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>4358.131439999999</v>
+        <v>1115.73131</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>2432.42552</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>1405.38221</v>
+        <v>545.381</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>12213.81911</v>
+        <v>8168.312449999999</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>849.8146400000001</v>
+        <v>841.2843800000002</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>15004.54394</v>
+        <v>2171.61786</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>13537.86214</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>5017.342610000001</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>1545.016</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>27236.0806</v>
+        <v>25228.29461</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>159428.022</v>
+        <v>159072.6102</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>16438.90953</v>
+        <v>12947.01545</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>12221.43487</v>
+        <v>11318.16093</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>41139.05799</v>
+        <v>13789.30232</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>18902.08086</v>
+        <v>17445.34499</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>12032.26043</v>
+        <v>11090.76952</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>41072.57148</v>
+        <v>12594.73369</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>76285.08096000001</v>
+        <v>48655.47168000001</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>16701.47145</v>
+        <v>11684.176</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>17289.73199</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>11066.68535</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>16628.505</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>90654.71316</v>
+        <v>16711.51985</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>23098.19123</v>
+        <v>22688.27689</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>117504.35701</v>
+        <v>83391.57730000002</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>2900.553809999999</v>
+        <v>1257.68569</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>7621.45833</v>
+        <v>4907.47796</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>395349.13151</v>
+        <v>386601.12713</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>16279.00953</v>
+        <v>11565.50065</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>69738.09809999999</v>
+        <v>14918.50542</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>25053.00049</v>
+        <v>20830.94657</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>16538.832</v>
+        <v>4530.72323</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>185210.56578</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>152915.96266</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>82828.33199999999</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>387632.26283</v>
+        <v>253199.27479</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>848687.15144</v>
+        <v>399920.62525</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1962618.95991</v>
+        <v>1222206.89725</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>925396.8733099999</v>
+        <v>520181.05918</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>2281946.57453</v>
+        <v>1396456.54344</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>2779024.0861</v>
+        <v>1555186.22783</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>9808229.84399</v>
+        <v>4717942.039989999</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>9157470.93457</v>
+        <v>5021693.41455</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>6944347.94144</v>
+        <v>3277322.32751</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>35761392.34695</v>
+        <v>14149293.36316</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>15494507.77115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>8454855.50695</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>14909715.112</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>14837.15545</v>
+        <v>14822.52121</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>5.1</v>
@@ -2054,13 +2100,13 @@
         <v>102.78991</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>21229.42379</v>
+        <v>6370.330910000001</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>10867.73285</v>
+        <v>2756.96165</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>5180.60779</v>
+        <v>4972.964140000001</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>2144.53984</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>2677.76652</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>135427.134</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2087,13 +2138,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>0.00017</v>
+        <v>0</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>12119.73676</v>
+        <v>12119.694</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>0.01106</v>
+        <v>0</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>0</v>
@@ -2113,248 +2164,283 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>202601.22719</v>
+        <v>190030.55574</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>676620.05743</v>
+        <v>334080.61675</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>848967.8420400001</v>
+        <v>556449.0444700001</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>863200.28428</v>
+        <v>350349.10711</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>726435.5668899999</v>
+        <v>417266.16993</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>412137.2679</v>
+        <v>241261.1534</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>586692.9642700001</v>
+        <v>563650.1017999999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>714601.2695299999</v>
+        <v>684300.94475</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>1103777.29902</v>
+        <v>1068982.22198</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1541179.91118</v>
+        <v>1509168.72664</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>2637122.92292</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1924970.02199</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1800730.462</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>613314.3676900001</v>
+        <v>464469.5388400001</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>1200171.73545</v>
+        <v>464593.5681499999</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>2102067.13865</v>
+        <v>1195726.93894</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1464350.27391</v>
+        <v>979710.63004</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>2444258.49119</v>
+        <v>1147495.80842</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>3157931.99487</v>
+        <v>1814108.91829</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>9286411.771019999</v>
+        <v>3547194.50872</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>10315541.38041</v>
+        <v>3531016.57426</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>8112521.243100001</v>
+        <v>3150629.09559</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>36468037.59328</v>
+        <v>9808774.090020001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>16916954.1234</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>7922405.530780001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>12192566.211</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>6776.599649999999</v>
+        <v>6694.884639999999</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>20929.80504</v>
+        <v>20771.98236</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>3717.47696</v>
+        <v>3677.2758</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>8530.96638</v>
+        <v>8458.938609999999</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>10008.86868</v>
+        <v>9844.85974</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>10230.79141</v>
+        <v>9716.16705</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>14972.88514</v>
+        <v>12289.28024</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>11552.20719</v>
+        <v>11283.65547</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>13071.46179</v>
+        <v>10087.99933</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>3772.7178</v>
+        <v>2754.35772</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>4948.79016</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>4232.676719999999</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>830.194</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>34614.06993</v>
+        <v>27322.40929</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>19754.73116</v>
+        <v>17263.69865</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>26440.03531</v>
+        <v>25909.58015</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>39272.73551</v>
+        <v>39177.87520999999</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>30555.2873</v>
+        <v>29289.83176</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>33046.30181</v>
+        <v>28222.33115</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>52959.90125</v>
+        <v>49874.40968</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>93279.83932</v>
+        <v>86532.50422</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>113950.82569</v>
+        <v>112031.38514</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>149473.19649</v>
+        <v>114034.42209</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>338418.86423</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>309074.44562</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>103575.739</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>50754.1891</v>
+        <v>50740.3835</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>27221.05796000001</v>
+        <v>27218.35796</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>76580.82114999999</v>
+        <v>73794.22575</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>269.2109599999999</v>
+        <v>134.09188</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>3757.40617</v>
+        <v>603.65959</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>591.95787</v>
+        <v>159.45394</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>20606.85595</v>
+        <v>17338.77152</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>17518.55207</v>
+        <v>17073.30207</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>30680.58342</v>
+        <v>28346.20881</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>61918.09166000001</v>
+        <v>32457.48325</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>55326.01244</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>52530.80816</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>195545.563</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>326692.8654299999</v>
+        <v>191172.09921</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>672726.45043</v>
+        <v>224520.20862</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1551910.14597</v>
+        <v>752075.2270600001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1022032.41781</v>
+        <v>627886.95417</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1578425.6159</v>
+        <v>679053.7726700001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>2286181.415459999</v>
+        <v>1073803.54326</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>8308789.69028</v>
+        <v>3167101.1774</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>9101113.030750003</v>
+        <v>3112196.69855</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>6390955.3358</v>
+        <v>2495047.785019999</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>34509448.83071001</v>
+        <v>8504830.722789999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>15622670.47767</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>6699022.579630001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>11023498.554</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>33.44401999999999</v>
+        <v>26.38812</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>19.36159</v>
@@ -2363,16 +2449,16 @@
         <v>94.47235999999999</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>50.85284</v>
+        <v>50.85283999999999</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>691.67231</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>22324.74799</v>
+        <v>6633.236019999999</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>11325.67032</v>
+        <v>3012.27209</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>422.44545</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>3604.48833</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>64420.512</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>14017.17777</v>
@@ -2399,7 +2490,7 @@
         <v>15989.90459</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>28132.68135</v>
+        <v>28114.65047</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>14280.7647</v>
@@ -2414,10 +2505,10 @@
         <v>0</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>0.00308</v>
+        <v>0</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>645.10119</v>
+        <v>0</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>180426.02179</v>
+        <v>174496.19631</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>443530.42468</v>
+        <v>158810.05438</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>415191.50555</v>
+        <v>312061.50735</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>379913.32571</v>
+        <v>289721.15263</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>802120.1057899999</v>
+        <v>409312.47731</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>805539.40486</v>
+        <v>695556.8114</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>877756.7680800001</v>
+        <v>297578.59779</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1091655.30255</v>
+        <v>303507.9685</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1561438.6762</v>
+        <v>503336.45828</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>1740005.72246</v>
+        <v>1151278.07001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>891985.4905700001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>853940.5323200001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>804695.649</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>292872.89926</v>
+        <v>248822.56527</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>222309.10471</v>
+        <v>194951.26933</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>341897.25352</v>
+        <v>305856.41666</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>389848.51405</v>
+        <v>351254.89911</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>427855.0314099999</v>
+        <v>401847.5186100001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>471656.30742</v>
+        <v>422296.36974</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>998295.17356</v>
+        <v>823388.6546499999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1347093.06352</v>
+        <v>1008056.22523</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>1905484.42369</v>
+        <v>1581828.31179</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>2892350.279670001</v>
+        <v>2341223.54293</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2896144.07105</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>2286808.4944</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>3295108.063</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>209439.36196</v>
+        <v>171431.4963</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>176061.54695</v>
+        <v>153832.52313</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>215223.09433</v>
+        <v>183564.06813</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>227220.56123</v>
+        <v>195367.33116</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>358003.27808</v>
+        <v>333062.36399</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>372413.24224</v>
+        <v>313901.44926</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>607113.3812099999</v>
+        <v>568107.3017000001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>779466.88933</v>
+        <v>589179.34507</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>971878.9906700001</v>
+        <v>824499.5491599999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1347093.26829</v>
+        <v>1163306.60799</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1507015.45091</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1265582.6902</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1652370.337</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>83433.5373</v>
+        <v>77391.06896999999</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>46247.55776</v>
+        <v>41118.74619999999</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>126674.15919</v>
+        <v>122292.34853</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>162627.95282</v>
+        <v>155887.56795</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>69851.75332999999</v>
+        <v>68785.15462</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>99243.06517999999</v>
+        <v>108394.92048</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>391181.7923499999</v>
+        <v>255281.35295</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>567626.17419</v>
+        <v>418876.8801599999</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>933605.43302</v>
+        <v>757328.7626299999</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>1545257.01138</v>
+        <v>1177916.93494</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1389128.62014</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1021225.8042</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1642737.726</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>2086858.07135</v>
+        <v>1981169.43872</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>3515086.25682</v>
+        <v>3460519.298639999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>5910226.136729999</v>
+        <v>5827381.578430001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>6318509.31378</v>
+        <v>5872171.85096</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>6259723.49883</v>
+        <v>6267897.892560001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>3561333.75613</v>
+        <v>3607434.789340001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>2308380.6589</v>
+        <v>3058086.59633</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1272418.95977</v>
+        <v>3767059.17805</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>3894564.66046</v>
+        <v>5271561.08192</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>10885621.26688</v>
+        <v>14892816.95535</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>11648600.64808</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>12669059.07635</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>22097053.759</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>156857.96115</v>
+        <v>142531.73354</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>169018.74439</v>
+        <v>160768.11808</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>164472.03556</v>
+        <v>149883.68769</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>490296.16979</v>
+        <v>458107.0069</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>227324.32772</v>
+        <v>174215.90118</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>401824.41376</v>
+        <v>366143.49304</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>271701.1209099999</v>
+        <v>202135.43437</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>3466559.77231</v>
+        <v>3295244.29186</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>1201741.64946</v>
+        <v>1019292.29397</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>453794.01439</v>
+        <v>401587.24939</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>779540.5190600001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>687103.76505</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>561713.569</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>3779.20056</v>
+        <v>3763.31238</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>11017.92163</v>
+        <v>10950.23525</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>21395.19596</v>
+        <v>21270.77856</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>21444.28625</v>
+        <v>20728.05756</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>29246.87141</v>
+        <v>26677.95641</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>27452.66669999999</v>
+        <v>24823.12043</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>41250.29409</v>
+        <v>37543.69323</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>17047.40882</v>
+        <v>16651.30539</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>24710.45917</v>
+        <v>23703.20534</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>95751.32801000001</v>
+        <v>95537.60121000001</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>310718.33316</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>309068.91013</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>56599.058</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>153078.76059</v>
+        <v>138768.42116</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>158000.82276</v>
+        <v>149817.88283</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>143076.8396</v>
+        <v>128612.90913</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>468851.88354</v>
+        <v>437378.94934</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>198077.45631</v>
+        <v>147537.94477</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>374371.7470600001</v>
+        <v>341320.37261</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>230450.82682</v>
+        <v>164591.74114</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>3449512.36349</v>
+        <v>3278592.98647</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>1177031.19029</v>
+        <v>995589.0886299999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>358042.68638</v>
+        <v>306049.64818</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>468822.1859</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>378034.85492</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>505114.511</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>277159.25323</v>
+        <v>239531.64125</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>256028.87564</v>
+        <v>212414.77102</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>582041.9071299999</v>
+        <v>500610.63054</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>510683.29422</v>
+        <v>445827.50184</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>1558275.57421</v>
+        <v>1502634.64846</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>791839.40332</v>
+        <v>943945.2731100001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>853997.3873099999</v>
+        <v>832138.40584</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>2602117.21206</v>
+        <v>2149303.51143</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>1459786.82009</v>
+        <v>860594.5452600002</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1982656.98203</v>
+        <v>1793334.70862</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1327733.48429</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1098697.95287</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>963779.5820000001</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>62371.68863</v>
+        <v>59645.56980999999</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>86720.24724</v>
+        <v>83409.38824</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>105915.34875</v>
+        <v>93780.09944000001</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>202657.78918</v>
+        <v>172709.52975</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>185316.9969</v>
+        <v>172973.24265</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>287007.4479500001</v>
+        <v>267365.06931</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>360465.72358</v>
+        <v>355009.403</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>354818.47393</v>
+        <v>311086.60979</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>351508.68709</v>
+        <v>313413.00902</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>664517.7991800001</v>
+        <v>538227.5969400001</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>870138.33084</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>690481.85221</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>603993.38</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>115796.66614</v>
+        <v>114600.31109</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>71036.63929000001</v>
+        <v>69585.82905</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>215548.68769</v>
+        <v>211448.59418</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>125724.56477</v>
+        <v>113921.14884</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>129872.47609</v>
+        <v>127673.26039</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>119906.96999</v>
+        <v>117545.95178</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>175833.05411</v>
+        <v>175463.89848</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>166911.80052</v>
+        <v>162199.91549</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>142646.73861</v>
+        <v>139673.21091</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>70515.50126</v>
+        <v>68813.41445</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>146254.1494</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>140734.66957</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>111445.01</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>98990.89846</v>
+        <v>65285.76035000001</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>98271.98911000001</v>
+        <v>59419.55373</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>260577.87069</v>
+        <v>195381.93692</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>182300.94027</v>
+        <v>159196.82325</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>1243086.10122</v>
+        <v>1201988.14542</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>384924.98538</v>
+        <v>559034.25202</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>317698.6096200001</v>
+        <v>301665.1043599999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>2080386.93761</v>
+        <v>1676016.98615</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>965631.3943899999</v>
+        <v>407508.32533</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1247623.68159</v>
+        <v>1186293.69723</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>311341.00405</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>267481.43109</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>248341.192</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>1966556.77927</v>
+        <v>1884169.53101</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>3428076.12557</v>
+        <v>3408872.6457</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>5492656.26516</v>
+        <v>5476654.63558</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>6298122.189350001</v>
+        <v>5884451.356020001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>4928772.252339999</v>
+        <v>4939479.145280001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>3171318.76657</v>
+        <v>3029633.00927</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>1726084.3925</v>
+        <v>2428083.62486</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>2136861.52002</v>
+        <v>4912999.95848</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>3636519.48983</v>
+        <v>5430258.830629999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>9356758.299240002</v>
+        <v>13501069.49612</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>11100407.68285</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>12257464.88853</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>21694987.746</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>342018.9722</v>
+        <v>329950.03262</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>603845.42592</v>
+        <v>583572.0075099999</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>939235.7135599999</v>
+        <v>925563.1815600001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>958748.56334</v>
+        <v>927791.4364599999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>972024.92411</v>
+        <v>957153.3354200001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>546581.88087</v>
+        <v>522053.54793</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>623871.5649</v>
+        <v>588147.7113399999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1052278.28806</v>
+        <v>974011.1017199999</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>990194.2059100001</v>
+        <v>952839.94109</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>2558114.812280001</v>
+        <v>2411265.92304</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>1908746.3906</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>1845238.66798</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>2563950.519</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>1624537.80707</v>
+        <v>1554219.49839</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>2824230.69965</v>
+        <v>2825300.63819</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>4553420.551600001</v>
+        <v>4551091.454019999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>5339373.62601</v>
+        <v>4956659.91956</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>3956747.328230001</v>
+        <v>3982325.809859999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>2624736.8857</v>
+        <v>2507579.46134</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>1102212.8276</v>
+        <v>1839935.91352</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>1084583.23196</v>
+        <v>3938988.85676</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>2646325.283920001</v>
+        <v>4477418.889540001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>6798643.48696</v>
+        <v>11089803.57308</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>9191661.29225</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>10412226.22055</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>19131037.227</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>175</v>
+        <v>117</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>207</v>
+        <v>123</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>227</v>
+        <v>110</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>274</v>
+        <v>147</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>94</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>